--- a/usr_doc/HelloSpen2 Programming Table.xlsx
+++ b/usr_doc/HelloSpen2 Programming Table.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Edit Mode" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="_fileMode" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>MODE_READ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_modeEdit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MODE_EDIT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,6 +67,42 @@
   </si>
   <si>
     <t>_editButton : Click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_editMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_fileMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first created, not saved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file loaded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file loaded, edited</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_CREATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_OPEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_OPEN_EDIT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,78 +447,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:G8"/>
+  <dimension ref="C5:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="22.75" customWidth="1"/>
     <col min="6" max="6" width="21.25" customWidth="1"/>
     <col min="7" max="7" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:7">
+    <row r="5" spans="3:8">
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7">
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:7">
+    <row r="7" spans="3:8">
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:7">
+    <row r="8" spans="3:8">
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -500,12 +535,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C3:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="23.75" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:4">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
